--- a/mix.xlsx
+++ b/mix.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4904" uniqueCount="3015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5088" uniqueCount="3126">
   <si>
     <t>file</t>
   </si>
@@ -9105,6 +9105,339 @@
   </si>
   <si>
     <t>1272_woxiangxiunianjia，daihaiziquluyou_haikou</t>
+  </si>
+  <si>
+    <t>201_xiangmu_dingan</t>
+  </si>
+  <si>
+    <t>202_tiaozheng_dingan</t>
+  </si>
+  <si>
+    <t>203_kaifang_dingan</t>
+  </si>
+  <si>
+    <t>205_waibiao_dingan</t>
+  </si>
+  <si>
+    <t>206_zixin_dingan</t>
+  </si>
+  <si>
+    <t>207_gongneng_dingan</t>
+  </si>
+  <si>
+    <t>208_tedian_dingan</t>
+  </si>
+  <si>
+    <t>209_mubiao_dingan</t>
+  </si>
+  <si>
+    <t>211_caozuo_dingan</t>
+  </si>
+  <si>
+    <t>212_tigong_dingan</t>
+  </si>
+  <si>
+    <t>213_qinggan_dingan</t>
+  </si>
+  <si>
+    <t>214_shichang_dingan</t>
+  </si>
+  <si>
+    <t>215_shencha_dingan</t>
+  </si>
+  <si>
+    <t>216_jihua_dingan</t>
+  </si>
+  <si>
+    <t>217_caokong_dingan</t>
+  </si>
+  <si>
+    <t>220_renyuan_dingan</t>
+  </si>
+  <si>
+    <t>222_guandian_dingan</t>
+  </si>
+  <si>
+    <t>224_cailiao_dingan</t>
+  </si>
+  <si>
+    <t>226_shunli_dingan</t>
+  </si>
+  <si>
+    <t>227_rensheng_dingan</t>
+  </si>
+  <si>
+    <t>228_renwu_dingan</t>
+  </si>
+  <si>
+    <t>230_shiying_dingan</t>
+  </si>
+  <si>
+    <t>232_quanli_dingan</t>
+  </si>
+  <si>
+    <t>233_yijian_dingan</t>
+  </si>
+  <si>
+    <t>234_tiqian_dingan</t>
+  </si>
+  <si>
+    <t>235_jingyan_dingan</t>
+  </si>
+  <si>
+    <t>236_guocheng_dingan</t>
+  </si>
+  <si>
+    <t>237_kehu_dingan</t>
+  </si>
+  <si>
+    <t>238_dianzi_dingan</t>
+  </si>
+  <si>
+    <t>240_anpai_dingan</t>
+  </si>
+  <si>
+    <t>241_xuanbu_dingan</t>
+  </si>
+  <si>
+    <t>242_fujin_dingan</t>
+  </si>
+  <si>
+    <t>243_lijie_dingan</t>
+  </si>
+  <si>
+    <t>244_reqing_dingan</t>
+  </si>
+  <si>
+    <t>245_renwu_dingan</t>
+  </si>
+  <si>
+    <t>246_kuandu_dingan</t>
+  </si>
+  <si>
+    <t>247_fangxing_dingan</t>
+  </si>
+  <si>
+    <t>248_polie_dingan</t>
+  </si>
+  <si>
+    <t>249_meiwei_dingan</t>
+  </si>
+  <si>
+    <t>250_fenxi_dingan</t>
+  </si>
+  <si>
+    <t>301_jiajv_dingan</t>
+  </si>
+  <si>
+    <t>302_chuangyi_dingan</t>
+  </si>
+  <si>
+    <t>303_tupian_dingan</t>
+  </si>
+  <si>
+    <t>304_chuangkou_dingan</t>
+  </si>
+  <si>
+    <t>305_yanjiu_dingan</t>
+  </si>
+  <si>
+    <t>306_dengpao_dingan</t>
+  </si>
+  <si>
+    <t>308_yinhang_dingan</t>
+  </si>
+  <si>
+    <t>309_youjian_dingan</t>
+  </si>
+  <si>
+    <t>310_yinyue_dingan</t>
+  </si>
+  <si>
+    <t>312_lvxing_dingan</t>
+  </si>
+  <si>
+    <t>313_caoping_dingan</t>
+  </si>
+  <si>
+    <t>314_huayuan_dingan</t>
+  </si>
+  <si>
+    <t>315_haitan_dingan</t>
+  </si>
+  <si>
+    <t>316_chuangpu_dingan</t>
+  </si>
+  <si>
+    <t>317_chuxing_dingan</t>
+  </si>
+  <si>
+    <t>318_huiyi_dingan</t>
+  </si>
+  <si>
+    <t>319_chengyuan_dingan</t>
+  </si>
+  <si>
+    <t>320_fenzu_dingan</t>
+  </si>
+  <si>
+    <t>321_xinxi_dingan</t>
+  </si>
+  <si>
+    <t>322_jiankang_dingan</t>
+  </si>
+  <si>
+    <t>323_guanxin_dingan</t>
+  </si>
+  <si>
+    <t>324_fangsong_dingan</t>
+  </si>
+  <si>
+    <t>325_yundong_dingan</t>
+  </si>
+  <si>
+    <t>326_yiyuan_dingan</t>
+  </si>
+  <si>
+    <t>328_shixian_dingan</t>
+  </si>
+  <si>
+    <t>329_kuaile_dingan</t>
+  </si>
+  <si>
+    <t>330_jiaoliu_dingan</t>
+  </si>
+  <si>
+    <t>331_fenxiang_dingan</t>
+  </si>
+  <si>
+    <t>332_juese_dingan</t>
+  </si>
+  <si>
+    <t>333_huanjing_dingan</t>
+  </si>
+  <si>
+    <t>334_qidian_dingan</t>
+  </si>
+  <si>
+    <t>335_yinxiang_dingan</t>
+  </si>
+  <si>
+    <t>336_yuyin_dingan</t>
+  </si>
+  <si>
+    <t>338_chengji_dingan</t>
+  </si>
+  <si>
+    <t>339_mubiao_dingan</t>
+  </si>
+  <si>
+    <t>340_liangdian_dingan</t>
+  </si>
+  <si>
+    <t>341_yanshi_dingan</t>
+  </si>
+  <si>
+    <t>342_zuzhi_dingan</t>
+  </si>
+  <si>
+    <t>343_zhuanzhu_dingan</t>
+  </si>
+  <si>
+    <t>345_tixing_dingan</t>
+  </si>
+  <si>
+    <t>346_gongjv_dingan</t>
+  </si>
+  <si>
+    <t>347_weisheng_dingan</t>
+  </si>
+  <si>
+    <t>348_zijin_dingan</t>
+  </si>
+  <si>
+    <t>349_zhuangkuang_dingan</t>
+  </si>
+  <si>
+    <t>350_shuxue_dingan</t>
+  </si>
+  <si>
+    <t>351_fuhao_dingan</t>
+  </si>
+  <si>
+    <t>352_tese_dingan</t>
+  </si>
+  <si>
+    <t>353_tiyu_dingan</t>
+  </si>
+  <si>
+    <t>355_yisheng_dingan</t>
+  </si>
+  <si>
+    <t>356_xunlian_dingan</t>
+  </si>
+  <si>
+    <t>357_wuli_dingan</t>
+  </si>
+  <si>
+    <t>358_zhishi_dingan</t>
+  </si>
+  <si>
+    <t>359_kaoshi_dingan</t>
+  </si>
+  <si>
+    <t>361_fenshu_dingan</t>
+  </si>
+  <si>
+    <t>362_ziliao_dingan</t>
+  </si>
+  <si>
+    <t>363_jiating_dingan</t>
+  </si>
+  <si>
+    <t>364_shuji_dingan</t>
+  </si>
+  <si>
+    <t>366_fudao_dingan</t>
+  </si>
+  <si>
+    <t>367_kecheng_dingan</t>
+  </si>
+  <si>
+    <t>371_jiaqi_dingan</t>
+  </si>
+  <si>
+    <t>373_celiang_dingan</t>
+  </si>
+  <si>
+    <t>382_taolun_dingan</t>
+  </si>
+  <si>
+    <t>393_jiaolian_dingan</t>
+  </si>
+  <si>
+    <t>503_shuijiao_dingan</t>
+  </si>
+  <si>
+    <t>510_zuozuoye_dingan</t>
+  </si>
+  <si>
+    <t>537_maicai_dingan</t>
+  </si>
+  <si>
+    <t>540_chizaocan_dingan</t>
+  </si>
+  <si>
+    <t>551_fuxi_dingan</t>
+  </si>
+  <si>
+    <t>568_shuaya_dingan</t>
+  </si>
+  <si>
+    <t>569_kanshu_dingan</t>
+  </si>
+  <si>
+    <t>592_zuofan_dingan</t>
   </si>
 </sst>
 </file>
@@ -9734,7 +10067,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -9783,6 +10116,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -10059,6 +10407,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -10309,10 +10664,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2445"/>
+  <dimension ref="A1:C2537"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2110" workbookViewId="0">
-      <selection activeCell="A2120" sqref="A2120"/>
+    <sheetView tabSelected="1" topLeftCell="A2403" workbookViewId="0">
+      <selection activeCell="A2427" sqref="A2427:B2537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -37593,7 +37948,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="2274" ht="40.5" spans="1:3">
+    <row r="2274" ht="27" spans="1:3">
       <c r="A2274" s="16" t="s">
         <v>3002</v>
       </c>
@@ -37723,7 +38078,7 @@
     </row>
     <row r="2285" ht="27" spans="1:3">
       <c r="A2285" s="16" t="str">
-        <f>C2285&amp;"_haikou"</f>
+        <f t="shared" ref="A2285:A2298" si="37">C2285&amp;"_haikou"</f>
         <v>1133_daozhengguizhongzigongsiqumai，zhiliangyoubaozheng._haikou</v>
       </c>
       <c r="B2285" s="4" t="s">
@@ -37735,7 +38090,7 @@
     </row>
     <row r="2286" ht="27" spans="1:3">
       <c r="A2286" s="16" t="str">
-        <f>C2286&amp;"_haikou"</f>
+        <f t="shared" si="37"/>
         <v>1134_gaigeixiaomaishifeile._haikou</v>
       </c>
       <c r="B2286" s="4" t="s">
@@ -37747,7 +38102,7 @@
     </row>
     <row r="2287" ht="27" spans="1:3">
       <c r="A2287" s="16" t="str">
-        <f>C2287&amp;"_haikou"</f>
+        <f t="shared" si="37"/>
         <v>1135_nongcunjingjihezuoshexinjinleyipihuafei._haikou</v>
       </c>
       <c r="B2287" s="4" t="s">
@@ -37759,7 +38114,7 @@
     </row>
     <row r="2288" ht="27" spans="1:3">
       <c r="A2288" s="16" t="str">
-        <f>C2288&amp;"_haikou"</f>
+        <f t="shared" si="37"/>
         <v>1136_zhezhonghuafeizuodifeihezhuifeidoukeyi._haikou</v>
       </c>
       <c r="B2288" s="4" t="s">
@@ -37771,7 +38126,7 @@
     </row>
     <row r="2289" ht="27" spans="1:3">
       <c r="A2289" s="16" t="str">
-        <f>C2289&amp;"_haikou"</f>
+        <f t="shared" si="37"/>
         <v>1137_huafeihenongjiafeiyiqiyong，xiaoguohuigenghao._haikou</v>
       </c>
       <c r="B2289" s="4" t="s">
@@ -37783,7 +38138,7 @@
     </row>
     <row r="2290" ht="27" spans="1:3">
       <c r="A2290" s="16" t="str">
-        <f>C2290&amp;"_haikou"</f>
+        <f t="shared" si="37"/>
         <v>1138_zacaohuifangainongzuowushengzhang._haikou</v>
       </c>
       <c r="B2290" s="4" t="s">
@@ -37795,7 +38150,7 @@
     </row>
     <row r="2291" ht="40.5" spans="1:3">
       <c r="A2291" s="16" t="str">
-        <f>C2291&amp;"_haikou"</f>
+        <f t="shared" si="37"/>
         <v>1139_jishiqingchuzacao，zhuangjiacainengchangdegenghao._haikou</v>
       </c>
       <c r="B2291" s="4" t="s">
@@ -37807,7 +38162,7 @@
     </row>
     <row r="2292" ht="27" spans="1:3">
       <c r="A2292" s="16" t="str">
-        <f>C2292&amp;"_haikou"</f>
+        <f t="shared" si="37"/>
         <v>1140_chucaojikeyidaitirengongchucao，jieshengrenli._haikou</v>
       </c>
       <c r="B2292" s="4" t="s">
@@ -37819,7 +38174,7 @@
     </row>
     <row r="2293" ht="27" spans="1:3">
       <c r="A2293" s="16" t="str">
-        <f>C2293&amp;"_haikou"</f>
+        <f t="shared" si="37"/>
         <v>1141_xianzaishibingchonghaiduofajijie._haikou</v>
       </c>
       <c r="B2293" s="4" t="s">
@@ -37831,7 +38186,7 @@
     </row>
     <row r="2294" ht="27" spans="1:3">
       <c r="A2294" s="16" t="str">
-        <f>C2294&amp;"_haikou"</f>
+        <f t="shared" si="37"/>
         <v>1142_bingchonghaiyaozhuajinshijianfangzhi._haikou</v>
       </c>
       <c r="B2294" s="4" t="s">
@@ -37843,7 +38198,7 @@
     </row>
     <row r="2295" ht="27" spans="1:3">
       <c r="A2295" s="16" t="str">
-        <f>C2295&amp;"_haikou"</f>
+        <f t="shared" si="37"/>
         <v>1143_butongdenongzuowu,fangzhibingchonghaidebanfabuyiyang._haikou</v>
       </c>
       <c r="B2295" s="4" t="s">
@@ -37855,7 +38210,7 @@
     </row>
     <row r="2296" ht="27" spans="1:3">
       <c r="A2296" s="16" t="str">
-        <f>C2296&amp;"_haikou"</f>
+        <f t="shared" si="37"/>
         <v>1144_yudaoyinanwentikeyizixunjishuyuan._haikou</v>
       </c>
       <c r="B2296" s="4" t="s">
@@ -37867,7 +38222,7 @@
     </row>
     <row r="2297" ht="27" spans="1:3">
       <c r="A2297" s="16" t="str">
-        <f>C2297&amp;"_haikou"</f>
+        <f t="shared" si="37"/>
         <v>1145_xianzaitichanglüsezhongzhi._haikou</v>
       </c>
       <c r="B2297" s="4" t="s">
@@ -37879,7 +38234,7 @@
     </row>
     <row r="2298" ht="27" spans="1:3">
       <c r="A2298" s="16" t="str">
-        <f>C2298&amp;"_haikou"</f>
+        <f t="shared" si="37"/>
         <v>1146_guodushiyongnongyaohehuafeihuipohuaihuanjing._haikou</v>
       </c>
       <c r="B2298" s="4" t="s">
@@ -37902,7 +38257,7 @@
     </row>
     <row r="2300" ht="27" spans="1:3">
       <c r="A2300" s="16" t="str">
-        <f>C2300&amp;"_haikou"</f>
+        <f t="shared" ref="A2300:A2312" si="38">C2300&amp;"_haikou"</f>
         <v>1149_lianheshougejijinengshouge，younengtuoli._haikou</v>
       </c>
       <c r="B2300" s="4" t="s">
@@ -37914,7 +38269,7 @@
     </row>
     <row r="2301" ht="27" spans="1:3">
       <c r="A2301" s="16" t="str">
-        <f>C2301&amp;"_haikou"</f>
+        <f t="shared" si="38"/>
         <v>1150_zhexienongyejixiezhenshinongmindehaobangshou_haikou</v>
       </c>
       <c r="B2301" s="4" t="s">
@@ -37926,7 +38281,7 @@
     </row>
     <row r="2302" ht="27" spans="1:3">
       <c r="A2302" s="16" t="str">
-        <f>C2302&amp;"_haikou"</f>
+        <f t="shared" si="38"/>
         <v>1151_wozuleyijianongyongwurenjigeiguoyuanpennongyao._haikou</v>
       </c>
       <c r="B2302" s="4" t="s">
@@ -37938,7 +38293,7 @@
     </row>
     <row r="2303" ht="27" spans="1:3">
       <c r="A2303" s="16" t="str">
-        <f>C2303&amp;"_haikou"</f>
+        <f t="shared" si="38"/>
         <v>1152_yidapianguoyuan，yihuierjiupenwanle._haikou</v>
       </c>
       <c r="B2303" s="4" t="s">
@@ -37950,7 +38305,7 @@
     </row>
     <row r="2304" ht="27" spans="1:3">
       <c r="A2304" s="16" t="str">
-        <f>C2304&amp;"_haikou"</f>
+        <f t="shared" si="38"/>
         <v>1153_zhebidiandongpenwuqihaiyaohao._haikou</v>
       </c>
       <c r="B2304" s="4" t="s">
@@ -37962,7 +38317,7 @@
     </row>
     <row r="2305" ht="27" spans="1:3">
       <c r="A2305" s="16" t="str">
-        <f>C2305&amp;"_haikou"</f>
+        <f t="shared" si="38"/>
         <v>1154_shiyongnongyongwurenji,hainengbimiannongyaozhongdu._haikou</v>
       </c>
       <c r="B2305" s="4" t="s">
@@ -37974,7 +38329,7 @@
     </row>
     <row r="2306" ht="40.5" spans="1:3">
       <c r="A2306" s="16" t="str">
-        <f>C2306&amp;"_haikou"</f>
+        <f t="shared" si="38"/>
         <v>1155_yiqianganhuoerkaoniuma、chutou、liandao，bujinlei，erqieman._haikou</v>
       </c>
       <c r="B2306" s="4" t="s">
@@ -37986,7 +38341,7 @@
     </row>
     <row r="2307" ht="27" spans="1:3">
       <c r="A2307" s="16" t="str">
-        <f>C2307&amp;"_haikou"</f>
+        <f t="shared" si="38"/>
         <v>1156_gaiyongnongyejixiehou，shengliyoushengshi._haikou</v>
       </c>
       <c r="B2307" s="4" t="s">
@@ -37998,7 +38353,7 @@
     </row>
     <row r="2308" ht="27" spans="1:3">
       <c r="A2308" s="16" t="str">
-        <f>C2308&amp;"_haikou"</f>
+        <f t="shared" si="38"/>
         <v>1157_xianzainongyejixieyuelaiyuepuji，yeyuelaiyuexianjinle._haikou</v>
       </c>
       <c r="B2308" s="4" t="s">
@@ -38010,7 +38365,7 @@
     </row>
     <row r="2309" ht="27" spans="1:3">
       <c r="A2309" s="16" t="str">
-        <f>C2309&amp;"_haikou"</f>
+        <f t="shared" si="38"/>
         <v>1158_ma、niu、yang，shihezaicaochangfangyang._haikou</v>
       </c>
       <c r="B2309" s="4" t="s">
@@ -38022,7 +38377,7 @@
     </row>
     <row r="2310" ht="27" spans="1:3">
       <c r="A2310" s="16" t="str">
-        <f>C2310&amp;"_haikou"</f>
+        <f t="shared" si="38"/>
         <v>1159_heliliyongcaochang，fangzhicaochangtuihua._haikou</v>
       </c>
       <c r="B2310" s="4" t="s">
@@ -38034,7 +38389,7 @@
     </row>
     <row r="2311" ht="40.5" spans="1:3">
       <c r="A2311" s="16" t="str">
-        <f>C2311&amp;"_haikou"</f>
+        <f t="shared" si="38"/>
         <v>1160_fangmuqijian ，yaorangyangnenghedaoganjingdeshui._haikou</v>
       </c>
       <c r="B2311" s="4" t="s">
@@ -38046,7 +38401,7 @@
     </row>
     <row r="2312" ht="40.5" spans="1:3">
       <c r="A2312" s="16" t="str">
-        <f>C2312&amp;"_haikou"</f>
+        <f t="shared" si="38"/>
         <v>1161_geiyangdingqiweiyan，keyifangzhijishengchongbing._haikou</v>
       </c>
       <c r="B2312" s="4" t="s">
@@ -38058,7 +38413,7 @@
     </row>
     <row r="2313" ht="27" spans="1:3">
       <c r="A2313" s="16" t="str">
-        <f t="shared" ref="A2313:A2376" si="37">C2313&amp;"_haikou"</f>
+        <f t="shared" ref="A2313:A2376" si="39">C2313&amp;"_haikou"</f>
         <v>1162_qinshuyang，bimiandiushi._haikou</v>
       </c>
       <c r="B2313" s="4" t="s">
@@ -38070,7 +38425,7 @@
     </row>
     <row r="2314" ht="27" spans="1:3">
       <c r="A2314" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1163_tingshuomuqulichuxianle“gaokejifangmu”._haikou</v>
       </c>
       <c r="B2314" s="4" t="s">
@@ -38082,7 +38437,7 @@
     </row>
     <row r="2315" ht="40.5" spans="1:3">
       <c r="A2315" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1164_geitouyangzhuangshangdingweiqi,yongshoujijiunengzhidaoyangqunzainalile._haikou</v>
       </c>
       <c r="B2315" s="4" t="s">
@@ -38094,7 +38449,7 @@
     </row>
     <row r="2316" ht="27" spans="1:3">
       <c r="A2316" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1165_muminqishangmotuoche,henkuaijiunengzhaodaoyangqun._haikou</v>
       </c>
       <c r="B2316" s="4" t="s">
@@ -38117,7 +38472,7 @@
     </row>
     <row r="2318" ht="27" spans="1:3">
       <c r="A2318" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1167_guoquyuminguozheyichuanweijiadeshenghuo._haikou</v>
       </c>
       <c r="B2318" s="4" t="s">
@@ -38129,7 +38484,7 @@
     </row>
     <row r="2319" ht="27" spans="1:3">
       <c r="A2319" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1168_zaishuishang,yuminkaotaiyanghexingxingshibiefangxiang._haikou</v>
       </c>
       <c r="B2319" s="4" t="s">
@@ -38141,7 +38496,7 @@
     </row>
     <row r="2320" ht="27" spans="1:3">
       <c r="A2320" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1169_xianzaihenduoyumindoushanganshenghuole._haikou</v>
       </c>
       <c r="B2320" s="4" t="s">
@@ -38153,7 +38508,7 @@
     </row>
     <row r="2321" ht="27" spans="1:3">
       <c r="A2321" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1170_yeyeshichangjiangyumin，yibeiziyibuyuweisheng._haikou</v>
       </c>
       <c r="B2321" s="4" t="s">
@@ -38165,7 +38520,7 @@
     </row>
     <row r="2322" ht="27" spans="1:3">
       <c r="A2322" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1171_tayibanlingchensansidianxiawang，wudianshouwang._haikou</v>
       </c>
       <c r="B2322" s="4" t="s">
@@ -38177,7 +38532,7 @@
     </row>
     <row r="2323" ht="27" spans="1:3">
       <c r="A2323" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1172_qingzaoyufanhuilaishougoutabuhuodeyuxia._haikou</v>
       </c>
       <c r="B2323" s="4" t="s">
@@ -38189,7 +38544,7 @@
     </row>
     <row r="2324" ht="27" spans="1:3">
       <c r="A2324" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1173_fazhanyuyeyaofangzhiguodubulao._haikou</v>
       </c>
       <c r="B2324" s="4" t="s">
@@ -38201,7 +38556,7 @@
     </row>
     <row r="2325" ht="27" spans="1:3">
       <c r="A2325" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1174_meiniandouyaoyouyiduanshijiandexiuyuqi._haikou</v>
       </c>
       <c r="B2325" s="4" t="s">
@@ -38213,7 +38568,7 @@
     </row>
     <row r="2326" ht="54" spans="1:3">
       <c r="A2326" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1175_guojiazhengzaikaizhantuopingongjianxingdong，dalizhichihuangshanzhishuzaolin._haikou</v>
       </c>
       <c r="B2326" s="4" t="s">
@@ -38225,7 +38580,7 @@
     </row>
     <row r="2327" ht="40.5" spans="1:3">
       <c r="A2327" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1176_woxiangchengbaozhezuohuangshan，zhongshangsongshu、yushu._haikou</v>
       </c>
       <c r="B2327" s="4" t="s">
@@ -38237,7 +38592,7 @@
     </row>
     <row r="2328" ht="27" spans="1:3">
       <c r="A2328" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1177_daoshihouhuangshanhuibianchengqingshan._haikou</v>
       </c>
       <c r="B2328" s="4" t="s">
@@ -38249,7 +38604,7 @@
     </row>
     <row r="2329" ht="27" spans="1:3">
       <c r="A2329" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1178_zhexieshumuyenenggeiwodailaijingjishouru._haikou</v>
       </c>
       <c r="B2329" s="4" t="s">
@@ -38261,7 +38616,7 @@
     </row>
     <row r="2330" ht="27" spans="1:3">
       <c r="A2330" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1179_woqulinyebumenzixunyixiayouguanzhengce._haikou</v>
       </c>
       <c r="B2330" s="4" t="s">
@@ -38273,7 +38628,7 @@
     </row>
     <row r="2331" ht="40.5" spans="1:3">
       <c r="A2331" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1180_wotanggejiayouyigemiaopuchang，zhonglehaoduolühuamiaomu._haikou</v>
       </c>
       <c r="B2331" s="4" t="s">
@@ -38285,7 +38640,7 @@
     </row>
     <row r="2332" ht="27" spans="1:3">
       <c r="A2332" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1181_miaopuchangliyouxuesong、yinxing、yulan......_haikou</v>
       </c>
       <c r="B2332" s="4" t="s">
@@ -38297,7 +38652,7 @@
     </row>
     <row r="2333" ht="27" spans="1:3">
       <c r="A2333" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1182_zhexiemiaomuxuqiulianghenda，buyongdanxinmaibuchuqu._haikou</v>
       </c>
       <c r="B2333" s="4" t="s">
@@ -38309,7 +38664,7 @@
     </row>
     <row r="2334" ht="40.5" spans="1:3">
       <c r="A2334" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1183_womenzhelishizhumingde“shuimitaozhi xiang”，jiajiahuhudou zhongtaoshu._haikou</v>
       </c>
       <c r="B2334" s="4" t="s">
@@ -38321,7 +38676,7 @@
     </row>
     <row r="2335" ht="27" spans="1:3">
       <c r="A2335" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1184_zhelichuchandeshuimitaogetouerda，kouganhao._haikou</v>
       </c>
       <c r="B2335" s="4" t="s">
@@ -38333,7 +38688,7 @@
     </row>
     <row r="2336" ht="40.5" spans="1:3">
       <c r="A2336" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1185_meinianchunjide“taohuajie”xiyinlehenduoyoukeqianlaishanghua._haikou</v>
       </c>
       <c r="B2336" s="4" t="s">
@@ -38345,7 +38700,7 @@
     </row>
     <row r="2337" ht="27" spans="1:3">
       <c r="A2337" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1186_tingshuogaoyangzhihenzhuanqian._haikou</v>
       </c>
       <c r="B2337" s="4" t="s">
@@ -38357,7 +38712,7 @@
     </row>
     <row r="2338" ht="40.5" spans="1:3">
       <c r="A2338" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1187_yangzhidezhongleihenduo，biruyangji、yangniu、yangxia._haikou</v>
       </c>
       <c r="B2338" s="4" t="s">
@@ -38380,7 +38735,7 @@
     </row>
     <row r="2340" spans="1:3">
       <c r="A2340" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1189_zheyaozonghekaolu._haikou</v>
       </c>
       <c r="B2340" s="4" t="s">
@@ -38392,7 +38747,7 @@
     </row>
     <row r="2341" ht="40.5" spans="1:3">
       <c r="A2341" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1190_nayangjilaishuo，bujinyaodajianjishe，haiyaozhangwosiyangjishu._haikou</v>
       </c>
       <c r="B2341" s="4" t="s">
@@ -38415,7 +38770,7 @@
     </row>
     <row r="2343" ht="27" spans="1:3">
       <c r="A2343" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1193_womencunliyouhenduoyutang._haikou</v>
       </c>
       <c r="B2343" s="4" t="s">
@@ -38427,7 +38782,7 @@
     </row>
     <row r="2344" ht="27" spans="1:3">
       <c r="A2344" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1194_haoduorendouzaigaoshuichanpinyangzhi._haikou</v>
       </c>
       <c r="B2344" s="4" t="s">
@@ -38439,7 +38794,7 @@
     </row>
     <row r="2345" ht="27" spans="1:3">
       <c r="A2345" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1195_youxierenhaizaiwangshangkailezhuanyingdian._haikou</v>
       </c>
       <c r="B2345" s="4" t="s">
@@ -38451,7 +38806,7 @@
     </row>
     <row r="2346" ht="27" spans="1:3">
       <c r="A2346" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1196_zhexieshuichanpinzaishichangshanghenyoujingzhengli._haikou</v>
       </c>
       <c r="B2346" s="4" t="s">
@@ -38463,7 +38818,7 @@
     </row>
     <row r="2347" ht="27" spans="1:3">
       <c r="A2347" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1197_wobamakaileyijiadoufudian._haikou</v>
       </c>
       <c r="B2347" s="4" t="s">
@@ -38475,7 +38830,7 @@
     </row>
     <row r="2348" ht="27" spans="1:3">
       <c r="A2348" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1198_meitianyidazao，tamenjiuqilaizuodoufu._haikou</v>
       </c>
       <c r="B2348" s="4" t="s">
@@ -38487,7 +38842,7 @@
     </row>
     <row r="2349" ht="27" spans="1:3">
       <c r="A2349" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1199_wojiadedoufuxiannenxini，yuanjinwenming._haikou</v>
       </c>
       <c r="B2349" s="4" t="s">
@@ -38499,7 +38854,7 @@
     </row>
     <row r="2350" ht="27" spans="1:3">
       <c r="A2350" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1200_chulezuodoufu，haizuodoujiang、doupi、douganhedoufusi._haikou</v>
       </c>
       <c r="B2350" s="4" t="s">
@@ -38511,7 +38866,7 @@
     </row>
     <row r="2351" spans="1:3">
       <c r="A2351" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1201_woshushushigemujiang._haikou</v>
       </c>
       <c r="B2351" s="4" t="s">
@@ -38523,7 +38878,7 @@
     </row>
     <row r="2352" spans="1:3">
       <c r="A2352" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1202_tadeshouyihenhao._haikou</v>
       </c>
       <c r="B2352" s="4" t="s">
@@ -38535,7 +38890,7 @@
     </row>
     <row r="2353" ht="27" spans="1:3">
       <c r="A2353" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1203_jiajushangdetuandoushitashougongdiaokede._haikou</v>
       </c>
       <c r="B2353" s="4" t="s">
@@ -38547,7 +38902,7 @@
     </row>
     <row r="2354" ht="27" spans="1:3">
       <c r="A2354" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1204_cunliderenzuojiajudouaizhaota._haikou</v>
       </c>
       <c r="B2354" s="4" t="s">
@@ -38559,7 +38914,7 @@
     </row>
     <row r="2355" ht="27" spans="1:3">
       <c r="A2355" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1205_tazuijinzhunbeikaigemuqijiagongchang._haikou</v>
       </c>
       <c r="B2355" s="4" t="s">
@@ -38582,7 +38937,7 @@
     </row>
     <row r="2357" ht="27" spans="1:3">
       <c r="A2357" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1207_hongzaojiagebucuo，zhenglexieqian._haikou</v>
       </c>
       <c r="B2357" s="4" t="s">
@@ -38594,7 +38949,7 @@
     </row>
     <row r="2358" ht="40.5" spans="1:3">
       <c r="A2358" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1208_xiangzhengfubangmanglianxidejingxiaoshang，zhijielaicunlishougou._haikou</v>
       </c>
       <c r="B2358" s="4" t="s">
@@ -38606,7 +38961,7 @@
     </row>
     <row r="2359" ht="27" spans="1:3">
       <c r="A2359" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1209_kaiwangdianmaitutechanyetingzhuanqiande._haikou</v>
       </c>
       <c r="B2359" s="4" t="s">
@@ -38618,7 +38973,7 @@
     </row>
     <row r="2360" ht="27" spans="1:3">
       <c r="A2360" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1210_chenglirenxihuanzanmendenongchanpin._haikou</v>
       </c>
       <c r="B2360" s="4" t="s">
@@ -38630,7 +38985,7 @@
     </row>
     <row r="2361" ht="40.5" spans="1:3">
       <c r="A2361" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1211_hetao、banli、huajiao zhijiezaiwangshangmai，xiaoluhenhao._haikou</v>
       </c>
       <c r="B2361" s="4" t="s">
@@ -38642,7 +38997,7 @@
     </row>
     <row r="2362" ht="27" spans="1:3">
       <c r="A2362" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1212_womenzhelibeipingwei“meilixiangcun”._haikou</v>
       </c>
       <c r="B2362" s="4" t="s">
@@ -38654,7 +39009,7 @@
     </row>
     <row r="2363" ht="27" spans="1:3">
       <c r="A2363" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1213_zhoumohejiejiariyouhenduorenlaiwaner._haikou</v>
       </c>
       <c r="B2363" s="4" t="s">
@@ -38666,7 +39021,7 @@
     </row>
     <row r="2364" ht="27" spans="1:3">
       <c r="A2364" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1214_nongjialedeshouruyinianbiyinianduo._haikou</v>
       </c>
       <c r="B2364" s="4" t="s">
@@ -38678,7 +39033,7 @@
     </row>
     <row r="2365" ht="27" spans="1:3">
       <c r="A2365" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1215_zheduokuilegaigekaifangdehaozhengceya._haikou</v>
       </c>
       <c r="B2365" s="4" t="s">
@@ -38690,7 +39045,7 @@
     </row>
     <row r="2366" spans="1:3">
       <c r="A2366" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1216_woxiangfengongzuo._haikou</v>
       </c>
       <c r="B2366" s="4" t="s">
@@ -38702,7 +39057,7 @@
     </row>
     <row r="2367" ht="40.5" spans="1:3">
       <c r="A2367" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1217_nikeyiqurencaishichang，kankanyoumeiyoushihenidegongzuo._haikou</v>
       </c>
       <c r="B2367" s="4" t="s">
@@ -38714,7 +39069,7 @@
     </row>
     <row r="2368" ht="27" spans="1:3">
       <c r="A2368" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1218_niyekeyiquzhaopinwangzhanfabuqiuzhixinxi._haikou</v>
       </c>
       <c r="B2368" s="4" t="s">
@@ -38726,7 +39081,7 @@
     </row>
     <row r="2369" ht="27" spans="1:3">
       <c r="A2369" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1219_wokandaolenimendezhaogongqishi._haikou</v>
       </c>
       <c r="B2369" s="4" t="s">
@@ -38749,7 +39104,7 @@
     </row>
     <row r="2371" ht="27" spans="1:3">
       <c r="A2371" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1221_womenzhengxiangzhaoliangmingweixiugong._haikou</v>
       </c>
       <c r="B2371" s="4" t="s">
@@ -38761,7 +39116,7 @@
     </row>
     <row r="2372" ht="40.5" spans="1:3">
       <c r="A2372" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1222_gongzuozhushichuliyezhubaoxiudeshui、dian、guandaodengwenti._haikou</v>
       </c>
       <c r="B2372" s="4" t="s">
@@ -38784,7 +39139,7 @@
     </row>
     <row r="2374" ht="40.5" spans="1:3">
       <c r="A2374" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1224_zhishaoyaogaozhongbiye，haiyaoyouyidingdegongzuojingyan._haikou</v>
       </c>
       <c r="B2374" s="4" t="s">
@@ -38807,7 +39162,7 @@
     </row>
     <row r="2376" ht="27" spans="1:3">
       <c r="A2376" s="16" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>1226_wozaibiedegongsiganguoliangnian._haikou</v>
       </c>
       <c r="B2376" s="4" t="s">
@@ -38830,7 +39185,7 @@
     </row>
     <row r="2378" spans="1:3">
       <c r="A2378" s="16" t="str">
-        <f t="shared" ref="A2377:A2426" si="38">C2378&amp;"_haikou"</f>
+        <f t="shared" ref="A2377:A2426" si="40">C2378&amp;"_haikou"</f>
         <v>1228_woyouxinlizhunbei._haikou</v>
       </c>
       <c r="B2378" s="4" t="s">
@@ -38842,7 +39197,7 @@
     </row>
     <row r="2379" ht="27" spans="1:3">
       <c r="A2379" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1229_nidetiaojianjibenfuhezhaopinyaoqiu._haikou</v>
       </c>
       <c r="B2379" s="4" t="s">
@@ -38854,7 +39209,7 @@
     </row>
     <row r="2380" ht="27" spans="1:3">
       <c r="A2380" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1230_guoliangtianrenshibumenhuitongzhinijieguo._haikou</v>
       </c>
       <c r="B2380" s="4" t="s">
@@ -38866,7 +39221,7 @@
     </row>
     <row r="2381" ht="27" spans="1:3">
       <c r="A2381" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1231_woxiangliaojieyixiadaiyuqingkuang._haikou</v>
       </c>
       <c r="B2381" s="4" t="s">
@@ -38878,7 +39233,7 @@
     </row>
     <row r="2382" ht="27" spans="1:3">
       <c r="A2382" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1232_chulemeiyuejibengongzi，haiyounianzhongjiang._haikou</v>
       </c>
       <c r="B2382" s="4" t="s">
@@ -38890,7 +39245,7 @@
     </row>
     <row r="2383" spans="1:3">
       <c r="A2383" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1233_you“wuxianyijin”._haikou</v>
       </c>
       <c r="B2383" s="4" t="s">
@@ -38902,7 +39257,7 @@
     </row>
     <row r="2384" ht="27" spans="1:3">
       <c r="A2384" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1234_youdianhuafeihejiaotongfeibutie_haikou</v>
       </c>
       <c r="B2384" s="4" t="s">
@@ -38914,7 +39269,7 @@
     </row>
     <row r="2385" ht="27" spans="1:3">
       <c r="A2385" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1235_niandiyaojinxingkaohe._haikou</v>
       </c>
       <c r="B2385" s="4" t="s">
@@ -38926,7 +39281,7 @@
     </row>
     <row r="2386" ht="27" spans="1:3">
       <c r="A2386" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1236_gongsitigongmianfeiwucan._haikou</v>
       </c>
       <c r="B2386" s="4" t="s">
@@ -38949,7 +39304,7 @@
     </row>
     <row r="2388" ht="27" spans="1:3">
       <c r="A2388" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1239_woxiwangzaodianerlaishangban._haikou</v>
       </c>
       <c r="B2388" s="4" t="s">
@@ -38961,7 +39316,7 @@
     </row>
     <row r="2389" ht="27" spans="1:3">
       <c r="A2389" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1240_niyitongguobishihemianshi，xiazhouyijiulaishangbanba._haikou</v>
       </c>
       <c r="B2389" s="4" t="s">
@@ -38973,7 +39328,7 @@
     </row>
     <row r="2390" ht="27" spans="1:3">
       <c r="A2390" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1241_banliruzhishouxuzhaowojiuxing._haikou</v>
       </c>
       <c r="B2390" s="4" t="s">
@@ -38985,7 +39340,7 @@
     </row>
     <row r="2391" ht="40.5" spans="1:3">
       <c r="A2391" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1242_qingrenzhenkanyixiazhefenlaodonghetong，tianxiexiangguanxinxi._haikou</v>
       </c>
       <c r="B2391" s="4" t="s">
@@ -38997,7 +39352,7 @@
     </row>
     <row r="2392" ht="27" spans="1:3">
       <c r="A2392" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1243_querenwuwuhou，qianshangmingziheriqi._haikou</v>
       </c>
       <c r="B2392" s="4" t="s">
@@ -39009,7 +39364,7 @@
     </row>
     <row r="2393" ht="27" spans="1:3">
       <c r="A2393" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1244_zheshixinlaidetongshixiaozhao._haikou</v>
       </c>
       <c r="B2393" s="4" t="s">
@@ -39021,7 +39376,7 @@
     </row>
     <row r="2394" ht="27" spans="1:3">
       <c r="A2394" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1245_xiaozhaohedajiadagezhaohuba._haikou</v>
       </c>
       <c r="B2394" s="4" t="s">
@@ -39033,7 +39388,7 @@
     </row>
     <row r="2395" spans="1:3">
       <c r="A2395" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1246_wozuogeziwojieshaoba._haikou</v>
       </c>
       <c r="B2395" s="4" t="s">
@@ -39045,7 +39400,7 @@
     </row>
     <row r="2396" ht="27" spans="1:3">
       <c r="A2396" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1247_dajiadoushitongshi，huxiangxuexi._haikou</v>
       </c>
       <c r="B2396" s="4" t="s">
@@ -39057,7 +39412,7 @@
     </row>
     <row r="2397" ht="27" spans="1:3">
       <c r="A2397" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1248_womengongsijingchangjubangangweipeixun._haikou</v>
       </c>
       <c r="B2397" s="4" t="s">
@@ -39069,7 +39424,7 @@
     </row>
     <row r="2398" ht="27" spans="1:3">
       <c r="A2398" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1249_zhecicanjiapeixundedoushixinyuangong._haikou</v>
       </c>
       <c r="B2398" s="4" t="s">
@@ -39081,7 +39436,7 @@
     </row>
     <row r="2399" ht="27" spans="1:3">
       <c r="A2399" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1250_laoyuangonghuigeidajiajiangjiejibenyewuliucheng._haikou</v>
       </c>
       <c r="B2399" s="4" t="s">
@@ -39093,7 +39448,7 @@
     </row>
     <row r="2400" ht="27" spans="1:3">
       <c r="A2400" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1251_gongsidezhiduhewenhua，dajiayeyaoliaojie._haikou</v>
       </c>
       <c r="B2400" s="4" t="s">
@@ -39105,7 +39460,7 @@
     </row>
     <row r="2401" ht="27" spans="1:3">
       <c r="A2401" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1252_xiawudepeixunzhuyaoshijieshaohangyezuixindongtai._haikou</v>
       </c>
       <c r="B2401" s="4" t="s">
@@ -39117,7 +39472,7 @@
     </row>
     <row r="2402" ht="40.5" spans="1:3">
       <c r="A2402" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1253_dajiayouwentikeyijushoushiyi._haikou</v>
       </c>
       <c r="B2402" s="10" t="s">
@@ -39129,7 +39484,7 @@
     </row>
     <row r="2403" ht="27" spans="1:3">
       <c r="A2403" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1254_hudongjiaoliudeshihou，xiwangdajiajijifayan._haikou</v>
       </c>
       <c r="B2403" s="4" t="s">
@@ -39141,7 +39496,7 @@
     </row>
     <row r="2404" ht="27" spans="1:3">
       <c r="A2404" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1255_gongsipainiqubeijingpeixunjitian._haikou</v>
       </c>
       <c r="B2404" s="4" t="s">
@@ -39153,7 +39508,7 @@
     </row>
     <row r="2405" ht="27" spans="1:3">
       <c r="A2405" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1256_zheyangdezhuanyejishupeixunjihuihennande._haikou</v>
       </c>
       <c r="B2405" s="4" t="s">
@@ -39165,7 +39520,7 @@
     </row>
     <row r="2406" ht="27" spans="1:3">
       <c r="A2406" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1257_huilaihouyaoyutongshimenfenxiangxindetihui._haikou</v>
       </c>
       <c r="B2406" s="4" t="s">
@@ -39177,7 +39532,7 @@
     </row>
     <row r="2407" ht="27" spans="1:3">
       <c r="A2407" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1258_chuchaihuilaihou，yaojishibaoxiaochailufei._haikou</v>
       </c>
       <c r="B2407" s="4" t="s">
@@ -39189,7 +39544,7 @@
     </row>
     <row r="2408" ht="27" spans="1:3">
       <c r="A2408" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1259_richanggoumaibangongyongpinyexuyaobaoxiao._haikou</v>
       </c>
       <c r="B2408" s="4" t="s">
@@ -39201,7 +39556,7 @@
     </row>
     <row r="2409" ht="27" spans="1:3">
       <c r="A2409" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1260_gezhongpiaojuyaoliuhao._haikou</v>
       </c>
       <c r="B2409" s="4" t="s">
@@ -39213,7 +39568,7 @@
     </row>
     <row r="2410" ht="27" spans="1:3">
       <c r="A2410" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1261_babaoxiaodanshangdeshixiang、jine、riqitianxieqingchu._haikou</v>
       </c>
       <c r="B2410" s="4" t="s">
@@ -39225,7 +39580,7 @@
     </row>
     <row r="2411" ht="27" spans="1:3">
       <c r="A2411" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1262_zijiyaoqingxi，bunengtugai._haikou</v>
       </c>
       <c r="B2411" s="4" t="s">
@@ -39237,7 +39592,7 @@
     </row>
     <row r="2412" ht="27" spans="1:3">
       <c r="A2412" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1263_piaojufenleizhenglihao，fuzaibaoxiaodanhoumian._haikou</v>
       </c>
       <c r="B2412" s="4" t="s">
@@ -39249,7 +39604,7 @@
     </row>
     <row r="2413" ht="27" spans="1:3">
       <c r="A2413" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1264_caiwurenyuanshenhehou，jiaolingdaoqianzi._haikou</v>
       </c>
       <c r="B2413" s="4" t="s">
@@ -39261,7 +39616,7 @@
     </row>
     <row r="2414" ht="27" spans="1:3">
       <c r="A2414" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1265_lingdaoqianzihoucaikeyiqucaiwububanlishouxu._haikou</v>
       </c>
       <c r="B2414" s="4" t="s">
@@ -39273,7 +39628,7 @@
     </row>
     <row r="2415" ht="27" spans="1:3">
       <c r="A2415" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1266_woshentihennanshou，xiangquyiyuankanbing._haikou</v>
       </c>
       <c r="B2415" s="4" t="s">
@@ -39285,7 +39640,7 @@
     </row>
     <row r="2416" ht="27" spans="1:3">
       <c r="A2416" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1267_shentiyaojin，ganjinquba._haikou</v>
       </c>
       <c r="B2416" s="4" t="s">
@@ -39297,7 +39652,7 @@
     </row>
     <row r="2417" ht="40.5" spans="1:3">
       <c r="A2417" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1268_ruguoxuyaoqingbingjia，jiderangyishengkaizhengming._haikou</v>
       </c>
       <c r="B2417" s="4" t="s">
@@ -39309,7 +39664,7 @@
     </row>
     <row r="2418" ht="27" spans="1:3">
       <c r="A2418" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1269_xiazhouwomeimeijiehun._haikou</v>
       </c>
       <c r="B2418" s="4" t="s">
@@ -39321,7 +39676,7 @@
     </row>
     <row r="2419" ht="27" spans="1:3">
       <c r="A2419" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1270_woxiangqingliangtianjia，huilaojiacanjiatadehunli._haikou</v>
       </c>
       <c r="B2419" s="4" t="s">
@@ -39344,7 +39699,7 @@
     </row>
     <row r="2421" ht="27" spans="1:3">
       <c r="A2421" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1273_zuijinyewubijiaoduo，guoduanshijianzaishuoba._haikou</v>
       </c>
       <c r="B2421" s="4" t="s">
@@ -39356,7 +39711,7 @@
     </row>
     <row r="2422" ht="27" spans="1:3">
       <c r="A2422" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1274_zhepihuokehuyaodehenji._haikou</v>
       </c>
       <c r="B2422" s="4" t="s">
@@ -39368,7 +39723,7 @@
     </row>
     <row r="2423" ht="27" spans="1:3">
       <c r="A2423" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1275_jinwandajiayaojiabanle._haikou</v>
       </c>
       <c r="B2423" s="4" t="s">
@@ -39380,7 +39735,7 @@
     </row>
     <row r="2424" ht="27" spans="1:3">
       <c r="A2424" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1276_geweigenjiarendagezhaohu._haikou</v>
       </c>
       <c r="B2424" s="4" t="s">
@@ -39392,7 +39747,7 @@
     </row>
     <row r="2425" ht="27" spans="1:3">
       <c r="A2425" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1277_qingxiaozhangbangmangdinghefanba._haikou</v>
       </c>
       <c r="B2425" s="4" t="s">
@@ -39404,7 +39759,7 @@
     </row>
     <row r="2426" spans="1:3">
       <c r="A2426" s="16" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1278_dajiaxinkule!_haikou</v>
       </c>
       <c r="B2426" s="4" t="s">
@@ -39414,232 +39769,892 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="2427" spans="1:3">
-      <c r="A2427" s="16" t="str">
-        <f>C2427&amp;"_dingan"</f>
-        <v>220_renyuan_dingan</v>
-      </c>
-      <c r="B2427" s="4" t="s">
+    <row r="2427" spans="1:2">
+      <c r="A2427" s="17" t="s">
+        <v>3015</v>
+      </c>
+      <c r="B2427" s="18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:2">
+      <c r="A2428" s="19" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B2428" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:2">
+      <c r="A2429" s="19" t="s">
+        <v>3017</v>
+      </c>
+      <c r="B2429" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:2">
+      <c r="A2430" s="19" t="s">
+        <v>3018</v>
+      </c>
+      <c r="B2430" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:2">
+      <c r="A2431" s="19" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B2431" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:2">
+      <c r="A2432" s="17" t="s">
+        <v>3020</v>
+      </c>
+      <c r="B2432" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:2">
+      <c r="A2433" s="17" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B2433" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:2">
+      <c r="A2434" s="19" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B2434" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:2">
+      <c r="A2435" s="17" t="s">
+        <v>3023</v>
+      </c>
+      <c r="B2435" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:2">
+      <c r="A2436" s="19" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B2436" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:2">
+      <c r="A2437" s="19" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B2437" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:2">
+      <c r="A2438" s="19" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B2438" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:2">
+      <c r="A2439" s="19" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B2439" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:2">
+      <c r="A2440" s="19" t="s">
+        <v>3028</v>
+      </c>
+      <c r="B2440" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:2">
+      <c r="A2441" s="17" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B2441" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:2">
+      <c r="A2442" s="19" t="s">
+        <v>3030</v>
+      </c>
+      <c r="B2442" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C2427" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2428" spans="1:3">
-      <c r="A2428" s="16" t="str">
-        <f t="shared" ref="A2428:A2445" si="39">C2428&amp;"_dingan"</f>
-        <v>227_rensheng_dingan</v>
-      </c>
-      <c r="B2428" s="4" t="s">
+    </row>
+    <row r="2443" spans="1:2">
+      <c r="A2443" s="17" t="s">
+        <v>3031</v>
+      </c>
+      <c r="B2443" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:2">
+      <c r="A2444" s="17" t="s">
+        <v>3032</v>
+      </c>
+      <c r="B2444" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:2">
+      <c r="A2445" s="17" t="s">
+        <v>3033</v>
+      </c>
+      <c r="B2445" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:2">
+      <c r="A2446" s="17" t="s">
+        <v>3034</v>
+      </c>
+      <c r="B2446" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C2428" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2429" spans="1:3">
-      <c r="A2429" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>238_dianzi_dingan</v>
-      </c>
-      <c r="B2429" s="4" t="s">
+    </row>
+    <row r="2447" spans="1:2">
+      <c r="A2447" s="17" t="s">
+        <v>3035</v>
+      </c>
+      <c r="B2447" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:2">
+      <c r="A2448" s="17" t="s">
+        <v>3036</v>
+      </c>
+      <c r="B2448" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:2">
+      <c r="A2449" s="17" t="s">
+        <v>3037</v>
+      </c>
+      <c r="B2449" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:2">
+      <c r="A2450" s="19" t="s">
+        <v>3038</v>
+      </c>
+      <c r="B2450" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:2">
+      <c r="A2451" s="17" t="s">
+        <v>3039</v>
+      </c>
+      <c r="B2451" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:2">
+      <c r="A2452" s="19" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B2452" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:2">
+      <c r="A2453" s="19" t="s">
+        <v>3041</v>
+      </c>
+      <c r="B2453" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:2">
+      <c r="A2454" s="17" t="s">
+        <v>3042</v>
+      </c>
+      <c r="B2454" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:2">
+      <c r="A2455" s="17" t="s">
+        <v>3043</v>
+      </c>
+      <c r="B2455" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C2429" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2430" spans="1:3">
-      <c r="A2430" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>240_anpai_dingan</v>
-      </c>
-      <c r="B2430" s="4" t="s">
+    </row>
+    <row r="2456" spans="1:2">
+      <c r="A2456" s="17" t="s">
+        <v>3044</v>
+      </c>
+      <c r="B2456" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C2430" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2431" spans="1:3">
-      <c r="A2431" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>245_renwu_dingan</v>
-      </c>
-      <c r="B2431" s="4" t="s">
+    </row>
+    <row r="2457" spans="1:2">
+      <c r="A2457" s="17" t="s">
+        <v>3045</v>
+      </c>
+      <c r="B2457" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:2">
+      <c r="A2458" s="19" t="s">
+        <v>3046</v>
+      </c>
+      <c r="B2458" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:2">
+      <c r="A2459" s="17" t="s">
+        <v>3047</v>
+      </c>
+      <c r="B2459" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:2">
+      <c r="A2460" s="19" t="s">
+        <v>3048</v>
+      </c>
+      <c r="B2460" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:2">
+      <c r="A2461" s="19" t="s">
+        <v>3049</v>
+      </c>
+      <c r="B2461" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C2431" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2432" spans="1:3">
-      <c r="A2432" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>303_tupian_dingan</v>
-      </c>
-      <c r="B2432" s="4" t="s">
+    </row>
+    <row r="2462" spans="1:2">
+      <c r="A2462" s="17" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B2462" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:2">
+      <c r="A2463" s="19" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B2463" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:2">
+      <c r="A2464" s="17" t="s">
+        <v>3052</v>
+      </c>
+      <c r="B2464" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:2">
+      <c r="A2465" s="17" t="s">
+        <v>3053</v>
+      </c>
+      <c r="B2465" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:2">
+      <c r="A2466" s="19" t="s">
+        <v>3054</v>
+      </c>
+      <c r="B2466" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:2">
+      <c r="A2467" s="19" t="s">
+        <v>3055</v>
+      </c>
+      <c r="B2467" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:2">
+      <c r="A2468" s="17" t="s">
+        <v>3056</v>
+      </c>
+      <c r="B2468" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:2">
+      <c r="A2469" s="17" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B2469" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C2432" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2433" spans="1:3">
-      <c r="A2433" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>308_yinhang_dingan</v>
-      </c>
-      <c r="B2433" s="4" t="s">
+    </row>
+    <row r="2470" spans="1:2">
+      <c r="A2470" s="17" t="s">
+        <v>3058</v>
+      </c>
+      <c r="B2470" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:2">
+      <c r="A2471" s="17" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B2471" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:2">
+      <c r="A2472" s="19" t="s">
+        <v>3060</v>
+      </c>
+      <c r="B2472" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:2">
+      <c r="A2473" s="19" t="s">
+        <v>3061</v>
+      </c>
+      <c r="B2473" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="C2433" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2434" spans="1:3">
-      <c r="A2434" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>326_yiyuan_dingan</v>
-      </c>
-      <c r="B2434" s="4" t="s">
+    </row>
+    <row r="2474" spans="1:2">
+      <c r="A2474" s="17" t="s">
+        <v>3062</v>
+      </c>
+      <c r="B2474" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:2">
+      <c r="A2475" s="19" t="s">
+        <v>3063</v>
+      </c>
+      <c r="B2475" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:2">
+      <c r="A2476" s="19" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B2476" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:2">
+      <c r="A2477" s="19" t="s">
+        <v>3065</v>
+      </c>
+      <c r="B2477" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:2">
+      <c r="A2478" s="17" t="s">
+        <v>3066</v>
+      </c>
+      <c r="B2478" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:2">
+      <c r="A2479" s="17" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B2479" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:2">
+      <c r="A2480" s="19" t="s">
+        <v>3068</v>
+      </c>
+      <c r="B2480" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:2">
+      <c r="A2481" s="19" t="s">
+        <v>3069</v>
+      </c>
+      <c r="B2481" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:2">
+      <c r="A2482" s="19" t="s">
+        <v>3070</v>
+      </c>
+      <c r="B2482" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:2">
+      <c r="A2483" s="19" t="s">
+        <v>3071</v>
+      </c>
+      <c r="B2483" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:2">
+      <c r="A2484" s="19" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B2484" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:2">
+      <c r="A2485" s="19" t="s">
+        <v>3073</v>
+      </c>
+      <c r="B2485" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:2">
+      <c r="A2486" s="17" t="s">
+        <v>3074</v>
+      </c>
+      <c r="B2486" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:2">
+      <c r="A2487" s="19" t="s">
+        <v>3075</v>
+      </c>
+      <c r="B2487" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:2">
+      <c r="A2488" s="17" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B2488" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:2">
+      <c r="A2489" s="19" t="s">
+        <v>3077</v>
+      </c>
+      <c r="B2489" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:2">
+      <c r="A2490" s="17" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B2490" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="C2434" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2435" spans="1:3">
-      <c r="A2435" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>350_shuxue_dingan</v>
-      </c>
-      <c r="B2435" s="4" t="s">
+    </row>
+    <row r="2491" spans="1:2">
+      <c r="A2491" s="19" t="s">
+        <v>3079</v>
+      </c>
+      <c r="B2491" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:2">
+      <c r="A2492" s="17" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B2492" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:2">
+      <c r="A2493" s="19" t="s">
+        <v>3081</v>
+      </c>
+      <c r="B2493" s="20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:2">
+      <c r="A2494" s="19" t="s">
+        <v>3082</v>
+      </c>
+      <c r="B2494" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:2">
+      <c r="A2495" s="17" t="s">
+        <v>3083</v>
+      </c>
+      <c r="B2495" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:2">
+      <c r="A2496" s="19" t="s">
+        <v>3084</v>
+      </c>
+      <c r="B2496" s="20" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:2">
+      <c r="A2497" s="17" t="s">
+        <v>3085</v>
+      </c>
+      <c r="B2497" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:2">
+      <c r="A2498" s="19" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B2498" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:2">
+      <c r="A2499" s="19" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B2499" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:2">
+      <c r="A2500" s="19" t="s">
+        <v>3088</v>
+      </c>
+      <c r="B2500" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:2">
+      <c r="A2501" s="17" t="s">
+        <v>3089</v>
+      </c>
+      <c r="B2501" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:2">
+      <c r="A2502" s="17" t="s">
+        <v>3090</v>
+      </c>
+      <c r="B2502" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:2">
+      <c r="A2503" s="19" t="s">
+        <v>3091</v>
+      </c>
+      <c r="B2503" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:2">
+      <c r="A2504" s="17" t="s">
+        <v>3092</v>
+      </c>
+      <c r="B2504" s="20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:2">
+      <c r="A2505" s="19" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B2505" s="20" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:2">
+      <c r="A2506" s="19" t="s">
+        <v>3094</v>
+      </c>
+      <c r="B2506" s="20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:2">
+      <c r="A2507" s="19" t="s">
+        <v>3095</v>
+      </c>
+      <c r="B2507" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:2">
+      <c r="A2508" s="19" t="s">
+        <v>3096</v>
+      </c>
+      <c r="B2508" s="20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:2">
+      <c r="A2509" s="19" t="s">
+        <v>3097</v>
+      </c>
+      <c r="B2509" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:2">
+      <c r="A2510" s="17" t="s">
+        <v>3098</v>
+      </c>
+      <c r="B2510" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:2">
+      <c r="A2511" s="17" t="s">
+        <v>3099</v>
+      </c>
+      <c r="B2511" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="C2435" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="2436" spans="1:3">
-      <c r="A2436" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>382_taolun_dingan</v>
-      </c>
-      <c r="B2436" s="6" t="s">
+    </row>
+    <row r="2512" spans="1:2">
+      <c r="A2512" s="19" t="s">
+        <v>3100</v>
+      </c>
+      <c r="B2512" s="20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:2">
+      <c r="A2513" s="17" t="s">
+        <v>3101</v>
+      </c>
+      <c r="B2513" s="20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:2">
+      <c r="A2514" s="17" t="s">
+        <v>3102</v>
+      </c>
+      <c r="B2514" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:2">
+      <c r="A2515" s="19" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B2515" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:2">
+      <c r="A2516" s="17" t="s">
+        <v>3104</v>
+      </c>
+      <c r="B2516" s="20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:2">
+      <c r="A2517" s="17" t="s">
+        <v>3105</v>
+      </c>
+      <c r="B2517" s="20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:2">
+      <c r="A2518" s="19" t="s">
+        <v>3106</v>
+      </c>
+      <c r="B2518" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:2">
+      <c r="A2519" s="17" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B2519" s="20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:2">
+      <c r="A2520" s="19" t="s">
+        <v>3108</v>
+      </c>
+      <c r="B2520" s="20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:2">
+      <c r="A2521" s="17" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B2521" s="20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:2">
+      <c r="A2522" s="19" t="s">
+        <v>3110</v>
+      </c>
+      <c r="B2522" s="20" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:2">
+      <c r="A2523" s="17" t="s">
+        <v>3111</v>
+      </c>
+      <c r="B2523" s="20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:2">
+      <c r="A2524" s="17" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B2524" s="20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:2">
+      <c r="A2525" s="19" t="s">
+        <v>3113</v>
+      </c>
+      <c r="B2525" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:2">
+      <c r="A2526" s="17" t="s">
+        <v>3114</v>
+      </c>
+      <c r="B2526" s="20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:2">
+      <c r="A2527" s="17" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B2527" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:2">
+      <c r="A2528" s="17" t="s">
+        <v>3116</v>
+      </c>
+      <c r="B2528" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="C2436" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2437" spans="1:3">
-      <c r="A2437" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>393_jiaolian_dingan</v>
-      </c>
-      <c r="B2437" s="6" t="s">
+    </row>
+    <row r="2529" spans="1:2">
+      <c r="A2529" s="17" t="s">
+        <v>3117</v>
+      </c>
+      <c r="B2529" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="C2437" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="2438" spans="1:3">
-      <c r="A2438" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>503_shuijiao_dingan</v>
-      </c>
-      <c r="B2438" s="6" t="s">
+    </row>
+    <row r="2530" spans="1:2">
+      <c r="A2530" s="17" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B2530" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="C2438" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="2439" spans="1:3">
-      <c r="A2439" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>510_zuozuoye_dingan</v>
-      </c>
-      <c r="B2439" s="6" t="s">
+    </row>
+    <row r="2531" spans="1:2">
+      <c r="A2531" s="17" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B2531" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="C2439" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2440" spans="1:3">
-      <c r="A2440" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>537_maicai_dingan</v>
-      </c>
-      <c r="B2440" s="6" t="s">
+    </row>
+    <row r="2532" spans="1:2">
+      <c r="A2532" s="17" t="s">
+        <v>3120</v>
+      </c>
+      <c r="B2532" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="C2440" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="2441" spans="1:3">
-      <c r="A2441" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>540_chizaocan_dingan</v>
-      </c>
-      <c r="B2441" s="6" t="s">
+    </row>
+    <row r="2533" spans="1:2">
+      <c r="A2533" s="19" t="s">
+        <v>3121</v>
+      </c>
+      <c r="B2533" s="21" t="s">
         <v>359</v>
       </c>
-      <c r="C2441" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="2442" spans="1:3">
-      <c r="A2442" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>551_fuxi_dingan</v>
-      </c>
-      <c r="B2442" s="6" t="s">
+    </row>
+    <row r="2534" spans="1:2">
+      <c r="A2534" s="17" t="s">
+        <v>3122</v>
+      </c>
+      <c r="B2534" s="21" t="s">
         <v>381</v>
       </c>
-      <c r="C2442" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="2443" spans="1:3">
-      <c r="A2443" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>568_shuaya_dingan</v>
-      </c>
-      <c r="B2443" s="6" t="s">
+    </row>
+    <row r="2535" spans="1:2">
+      <c r="A2535" s="17" t="s">
+        <v>3123</v>
+      </c>
+      <c r="B2535" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="C2443" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="2444" spans="1:3">
-      <c r="A2444" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>569_kanshu_dingan</v>
-      </c>
-      <c r="B2444" s="6" t="s">
+    </row>
+    <row r="2536" spans="1:2">
+      <c r="A2536" s="17" t="s">
+        <v>3124</v>
+      </c>
+      <c r="B2536" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="C2444" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="2445" spans="1:3">
-      <c r="A2445" s="16" t="str">
-        <f t="shared" si="39"/>
-        <v>592_zuofan_dingan</v>
-      </c>
-      <c r="B2445" s="6" t="s">
+    </row>
+    <row r="2537" spans="1:2">
+      <c r="A2537" s="17" t="s">
+        <v>3125</v>
+      </c>
+      <c r="B2537" s="21" t="s">
         <v>349</v>
-      </c>
-      <c r="C2445" s="3" t="s">
-        <v>463</v>
       </c>
     </row>
   </sheetData>
